--- a/preguntas_relacionadas/p_formula_blanco.xlsx
+++ b/preguntas_relacionadas/p_formula_blanco.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365inegi-my.sharepoint.com/personal/aaron_ramirez_inegi_org_mx/Documents/Documents/codigos_python/Prueba2_p_rel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365inegi-my.sharepoint.com/personal/aaron_ramirez_inegi_org_mx/Documents/Documents/codigos_python/Prueba2_p_rel/P_rel_git/preguntas_relacionadas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E24CF3D7-B312-4EF0-A5B5-331E1AAB0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8740AB5-0A07-436F-B45C-CDE5AD0DEFC3}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{E24CF3D7-B312-4EF0-A5B5-331E1AAB0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7FD5B8B-6B81-47DA-ACA8-B5FC29EF1BBC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A595293E-8E41-4F55-AF5A-447CE0A3C184}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A595293E-8E41-4F55-AF5A-447CE0A3C184}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Referentes</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>Comparador amarillo debe ser menor o igual que referente amarillo</t>
+  </si>
+  <si>
+    <t>continua en hoja 2</t>
+  </si>
+  <si>
+    <t>cada fila debe se rigual que columna de mismo color en hoja1</t>
   </si>
 </sst>
 </file>
@@ -65,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +97,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -103,11 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,44 +437,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BB361E-8C02-4D7D-A031-24BFDB937B7B}">
-  <dimension ref="V4:AC12"/>
+  <dimension ref="V2:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
       <c r="AA4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="4"/>
       <c r="AB5" s="2"/>
+      <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="Z6" s="4"/>
       <c r="AB6" s="2"/>
+      <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="22:29" x14ac:dyDescent="0.25">
+      <c r="Z7" s="4"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="22:29" x14ac:dyDescent="0.25">
-      <c r="V8" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="22:29" x14ac:dyDescent="0.25">
-      <c r="V9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="22:29" x14ac:dyDescent="0.25">
-      <c r="V10" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z9" s="4"/>
     </row>
     <row r="11" spans="22:29" x14ac:dyDescent="0.25">
       <c r="AA11" t="s">
@@ -474,4 +501,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D4689B-9BE3-4ED3-AB15-9EA9FD79F58B}">
+  <dimension ref="Z15:AC21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T4" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="15" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>